--- a/ACPbyState.xlsx
+++ b/ACPbyState.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">state</t>
   </si>
@@ -32,7 +32,10 @@
     <t xml:space="preserve">hh_jul4</t>
   </si>
   <si>
-    <t xml:space="preserve">hh_jul18</t>
+    <t xml:space="preserve">hh_aug8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_aug15</t>
   </si>
   <si>
     <t xml:space="preserve">totalHH</t>
@@ -566,10 +569,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>219855</v>
@@ -587,24 +593,27 @@
         <v>240394</v>
       </c>
       <c r="G2" t="n">
-        <v>246692</v>
+        <v>253573</v>
       </c>
       <c r="H2" t="n">
+        <v>256288</v>
+      </c>
+      <c r="I2" t="n">
         <v>1888504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>836135</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>44.2749922690129</v>
       </c>
-      <c r="K2" t="n">
-        <v>29.5038480628128</v>
+      <c r="L2" t="n">
+        <v>30.651509624642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>8458</v>
@@ -622,24 +631,27 @@
         <v>9755</v>
       </c>
       <c r="G3" t="n">
-        <v>9990</v>
+        <v>10504</v>
       </c>
       <c r="H3" t="n">
+        <v>10782</v>
+      </c>
+      <c r="I3" t="n">
         <v>255173</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>67742</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>26.5474795530875</v>
       </c>
-      <c r="K3" t="n">
-        <v>14.7471288122583</v>
+      <c r="L3" t="n">
+        <v>15.9162705559328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>258415</v>
@@ -657,24 +669,27 @@
         <v>279622</v>
       </c>
       <c r="G4" t="n">
-        <v>284481</v>
+        <v>284255</v>
       </c>
       <c r="H4" t="n">
+        <v>287819</v>
+      </c>
+      <c r="I4" t="n">
         <v>2643430</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>962631</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>36.4159822654657</v>
       </c>
-      <c r="K4" t="n">
-        <v>29.5524453295188</v>
+      <c r="L4" t="n">
+        <v>29.8992033292092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>108792</v>
@@ -692,24 +707,27 @@
         <v>115337</v>
       </c>
       <c r="G5" t="n">
-        <v>117998</v>
+        <v>119763</v>
       </c>
       <c r="H5" t="n">
+        <v>121011</v>
+      </c>
+      <c r="I5" t="n">
         <v>1170544</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>540607</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>46.1842527918643</v>
       </c>
-      <c r="K5" t="n">
-        <v>21.826946376943</v>
+      <c r="L5" t="n">
+        <v>22.3842828524233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>1419902</v>
@@ -727,24 +745,27 @@
         <v>1568423</v>
       </c>
       <c r="G6" t="n">
-        <v>1604402</v>
+        <v>1579647</v>
       </c>
       <c r="H6" t="n">
+        <v>1593436</v>
+      </c>
+      <c r="I6" t="n">
         <v>13103114</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3863524</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>29.4855406127124</v>
       </c>
-      <c r="K6" t="n">
-        <v>41.5269065236815</v>
+      <c r="L6" t="n">
+        <v>41.243072386764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
         <v>133248</v>
@@ -762,24 +783,27 @@
         <v>147623</v>
       </c>
       <c r="G7" t="n">
-        <v>150702</v>
+        <v>153548</v>
       </c>
       <c r="H7" t="n">
+        <v>154703</v>
+      </c>
+      <c r="I7" t="n">
         <v>2137402</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>618474</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>28.9357827867664</v>
       </c>
-      <c r="K7" t="n">
-        <v>24.3667478341854</v>
+      <c r="L7" t="n">
+        <v>25.013662660031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>115245</v>
@@ -797,24 +821,27 @@
         <v>116149</v>
       </c>
       <c r="G8" t="n">
-        <v>117194</v>
+        <v>116811</v>
       </c>
       <c r="H8" t="n">
+        <v>117472</v>
+      </c>
+      <c r="I8" t="n">
         <v>1385437</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>400181</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>28.8848211791659</v>
       </c>
-      <c r="K8" t="n">
-        <v>29.2852484250876</v>
+      <c r="L8" t="n">
+        <v>29.3547169905618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>24787</v>
@@ -832,24 +859,27 @@
         <v>26801</v>
       </c>
       <c r="G9" t="n">
-        <v>27131</v>
+        <v>27266</v>
       </c>
       <c r="H9" t="n">
+        <v>27395</v>
+      </c>
+      <c r="I9" t="n">
         <v>370953</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>119869</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>32.3137971656787</v>
       </c>
-      <c r="K9" t="n">
-        <v>22.6338753138843</v>
+      <c r="L9" t="n">
+        <v>22.8541157430195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>40282</v>
@@ -867,24 +897,27 @@
         <v>40302</v>
       </c>
       <c r="G10" t="n">
-        <v>40990</v>
+        <v>40092</v>
       </c>
       <c r="H10" t="n">
+        <v>40070</v>
+      </c>
+      <c r="I10" t="n">
         <v>288307</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>81018</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>28.1012948003344</v>
       </c>
-      <c r="K10" t="n">
-        <v>50.5936952282209</v>
+      <c r="L10" t="n">
+        <v>49.4581451035572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
         <v>829639</v>
@@ -902,24 +935,27 @@
         <v>898754</v>
       </c>
       <c r="G11" t="n">
-        <v>917318</v>
+        <v>926568</v>
       </c>
       <c r="H11" t="n">
+        <v>936104</v>
+      </c>
+      <c r="I11" t="n">
         <v>7931313</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>3106921</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>39.1728456561984</v>
       </c>
-      <c r="K11" t="n">
-        <v>29.5249863128158</v>
+      <c r="L11" t="n">
+        <v>30.1296363827725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>423594</v>
@@ -937,24 +973,27 @@
         <v>454438</v>
       </c>
       <c r="G12" t="n">
-        <v>463418</v>
+        <v>465775</v>
       </c>
       <c r="H12" t="n">
+        <v>468927</v>
+      </c>
+      <c r="I12" t="n">
         <v>3830264</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1440585</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>37.6105928990795</v>
       </c>
-      <c r="K12" t="n">
-        <v>32.1687370061468</v>
+      <c r="L12" t="n">
+        <v>32.5511510948677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>24670</v>
@@ -972,24 +1011,27 @@
         <v>27306</v>
       </c>
       <c r="G13" t="n">
-        <v>28077</v>
+        <v>29735</v>
       </c>
       <c r="H13" t="n">
+        <v>30402</v>
+      </c>
+      <c r="I13" t="n">
         <v>467932</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>121514</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>25.9683030867733</v>
       </c>
-      <c r="K13" t="n">
-        <v>23.105979557911</v>
+      <c r="L13" t="n">
+        <v>25.0193393353852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>21584</v>
@@ -1007,24 +1049,27 @@
         <v>22756</v>
       </c>
       <c r="G14" t="n">
-        <v>23218</v>
+        <v>23874</v>
       </c>
       <c r="H14" t="n">
+        <v>24011</v>
+      </c>
+      <c r="I14" t="n">
         <v>649299</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>243419</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>37.4895079154596</v>
       </c>
-      <c r="K14" t="n">
-        <v>9.53828583635624</v>
+      <c r="L14" t="n">
+        <v>9.86406155641096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>360288</v>
@@ -1042,24 +1087,27 @@
         <v>384166</v>
       </c>
       <c r="G15" t="n">
-        <v>391690</v>
+        <v>401577</v>
       </c>
       <c r="H15" t="n">
+        <v>405079</v>
+      </c>
+      <c r="I15" t="n">
         <v>4884061</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1649153</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>33.766019711875</v>
       </c>
-      <c r="K15" t="n">
-        <v>23.7509800485461</v>
+      <c r="L15" t="n">
+        <v>24.5628513546045</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>231520</v>
@@ -1077,24 +1125,27 @@
         <v>244074</v>
       </c>
       <c r="G16" t="n">
-        <v>249067</v>
+        <v>254485</v>
       </c>
       <c r="H16" t="n">
+        <v>257032</v>
+      </c>
+      <c r="I16" t="n">
         <v>2602770</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1007923</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>38.7250121985423</v>
       </c>
-      <c r="K16" t="n">
-        <v>24.7109154171499</v>
+      <c r="L16" t="n">
+        <v>25.5011543540528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
         <v>62130</v>
@@ -1112,24 +1163,27 @@
         <v>64572</v>
       </c>
       <c r="G17" t="n">
-        <v>65905</v>
+        <v>65092</v>
       </c>
       <c r="H17" t="n">
+        <v>65664</v>
+      </c>
+      <c r="I17" t="n">
         <v>1273941</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>458435</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>35.9855754701356</v>
       </c>
-      <c r="K17" t="n">
-        <v>14.3760838504913</v>
+      <c r="L17" t="n">
+        <v>14.3235136933262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>58337</v>
@@ -1147,24 +1201,27 @@
         <v>64412</v>
       </c>
       <c r="G18" t="n">
-        <v>66204</v>
+        <v>67987</v>
       </c>
       <c r="H18" t="n">
+        <v>68991</v>
+      </c>
+      <c r="I18" t="n">
         <v>1141985</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>422679</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>37.0126577844718</v>
       </c>
-      <c r="K18" t="n">
-        <v>15.6629498981497</v>
+      <c r="L18" t="n">
+        <v>16.3223155160299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>244625</v>
@@ -1182,24 +1239,27 @@
         <v>258633</v>
       </c>
       <c r="G19" t="n">
-        <v>264725</v>
+        <v>270990</v>
       </c>
       <c r="H19" t="n">
+        <v>274534</v>
+      </c>
+      <c r="I19" t="n">
         <v>1748053</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>765200</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>43.7744164507598</v>
       </c>
-      <c r="K19" t="n">
-        <v>34.5955305802405</v>
+      <c r="L19" t="n">
+        <v>35.8774176685834</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>274327</v>
@@ -1217,24 +1277,27 @@
         <v>290912</v>
       </c>
       <c r="G20" t="n">
-        <v>296325</v>
+        <v>296083</v>
       </c>
       <c r="H20" t="n">
+        <v>299624</v>
+      </c>
+      <c r="I20" t="n">
         <v>1751956</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>793554</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>45.2953156357808</v>
       </c>
-      <c r="K20" t="n">
-        <v>37.3415041698486</v>
+      <c r="L20" t="n">
+        <v>37.7572288716332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>36834</v>
@@ -1252,24 +1315,27 @@
         <v>43873</v>
       </c>
       <c r="G21" t="n">
-        <v>46012</v>
+        <v>49356</v>
       </c>
       <c r="H21" t="n">
+        <v>50214</v>
+      </c>
+      <c r="I21" t="n">
         <v>569551</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>217522</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>38.1918388344503</v>
       </c>
-      <c r="K21" t="n">
-        <v>21.1528029348756</v>
+      <c r="L21" t="n">
+        <v>23.0845615615892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
         <v>158612</v>
@@ -1287,24 +1353,27 @@
         <v>158567</v>
       </c>
       <c r="G22" t="n">
-        <v>159104</v>
+        <v>158035</v>
       </c>
       <c r="H22" t="n">
+        <v>159019</v>
+      </c>
+      <c r="I22" t="n">
         <v>2230527</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>562317</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>25.2100512569451</v>
       </c>
-      <c r="K22" t="n">
-        <v>28.2943606542217</v>
+      <c r="L22" t="n">
+        <v>28.2792446253626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>179018</v>
@@ -1322,24 +1391,27 @@
         <v>202304</v>
       </c>
       <c r="G23" t="n">
-        <v>206113</v>
+        <v>208247</v>
       </c>
       <c r="H23" t="n">
+        <v>209672</v>
+      </c>
+      <c r="I23" t="n">
         <v>2646980</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>751012</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>28.372409311744</v>
       </c>
-      <c r="K23" t="n">
-        <v>27.4447012830687</v>
+      <c r="L23" t="n">
+        <v>27.9185951755764</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>413557</v>
@@ -1357,24 +1429,27 @@
         <v>437445</v>
       </c>
       <c r="G24" t="n">
-        <v>445189</v>
+        <v>452763</v>
       </c>
       <c r="H24" t="n">
+        <v>456999</v>
+      </c>
+      <c r="I24" t="n">
         <v>3980408</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1531216</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>38.46882028174</v>
       </c>
-      <c r="K24" t="n">
-        <v>29.0742129131357</v>
+      <c r="L24" t="n">
+        <v>29.8454953448762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>111842</v>
@@ -1392,24 +1467,27 @@
         <v>120754</v>
       </c>
       <c r="G25" t="n">
-        <v>125506</v>
+        <v>133017</v>
       </c>
       <c r="H25" t="n">
+        <v>135935</v>
+      </c>
+      <c r="I25" t="n">
         <v>2207988</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>658337</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>29.8161493631306</v>
       </c>
-      <c r="K25" t="n">
-        <v>19.0640963518684</v>
+      <c r="L25" t="n">
+        <v>20.6482394275272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>155035</v>
@@ -1427,24 +1505,27 @@
         <v>162948</v>
       </c>
       <c r="G26" t="n">
-        <v>166382</v>
+        <v>158231</v>
       </c>
       <c r="H26" t="n">
+        <v>157544</v>
+      </c>
+      <c r="I26" t="n">
         <v>1116649</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>543259</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>48.6508294011816</v>
       </c>
-      <c r="K26" t="n">
-        <v>30.6266440132607</v>
+      <c r="L26" t="n">
+        <v>28.9997956775682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
         <v>186589</v>
@@ -1462,24 +1543,27 @@
         <v>202771</v>
       </c>
       <c r="G27" t="n">
-        <v>207724</v>
+        <v>212825</v>
       </c>
       <c r="H27" t="n">
+        <v>215602</v>
+      </c>
+      <c r="I27" t="n">
         <v>2440212</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>966006</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>39.5869703124155</v>
       </c>
-      <c r="K27" t="n">
-        <v>21.5033861073327</v>
+      <c r="L27" t="n">
+        <v>22.3189089922837</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
         <v>22433</v>
@@ -1497,24 +1581,27 @@
         <v>24446</v>
       </c>
       <c r="G28" t="n">
-        <v>25357</v>
+        <v>26867</v>
       </c>
       <c r="H28" t="n">
+        <v>27298</v>
+      </c>
+      <c r="I28" t="n">
         <v>436048</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>174148</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>39.9378050122922</v>
       </c>
-      <c r="K28" t="n">
-        <v>14.5606036245033</v>
+      <c r="L28" t="n">
+        <v>15.6751728414911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
         <v>40650</v>
@@ -1532,24 +1619,27 @@
         <v>46371</v>
       </c>
       <c r="G29" t="n">
-        <v>47329</v>
+        <v>49704</v>
       </c>
       <c r="H29" t="n">
+        <v>50634</v>
+      </c>
+      <c r="I29" t="n">
         <v>766663</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>269214</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>35.1150375067011</v>
       </c>
-      <c r="K29" t="n">
-        <v>17.5804378672729</v>
+      <c r="L29" t="n">
+        <v>18.8080857607702</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
         <v>131768</v>
@@ -1567,24 +1657,27 @@
         <v>141424</v>
       </c>
       <c r="G30" t="n">
-        <v>144635</v>
+        <v>143618</v>
       </c>
       <c r="H30" t="n">
+        <v>145312</v>
+      </c>
+      <c r="I30" t="n">
         <v>1130011</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>407113</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>36.0273484063429</v>
       </c>
-      <c r="K30" t="n">
-        <v>35.526991277606</v>
+      <c r="L30" t="n">
+        <v>35.6932841741728</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
         <v>18706</v>
@@ -1602,24 +1695,27 @@
         <v>20648</v>
       </c>
       <c r="G31" t="n">
-        <v>21267</v>
+        <v>22239</v>
       </c>
       <c r="H31" t="n">
+        <v>22471</v>
+      </c>
+      <c r="I31" t="n">
         <v>539116</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>149880</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>27.801066931792</v>
       </c>
-      <c r="K31" t="n">
-        <v>14.1893514811849</v>
+      <c r="L31" t="n">
+        <v>14.9926607953029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
         <v>144420</v>
@@ -1637,24 +1733,27 @@
         <v>159540</v>
       </c>
       <c r="G32" t="n">
-        <v>161767</v>
+        <v>165867</v>
       </c>
       <c r="H32" t="n">
+        <v>167065</v>
+      </c>
+      <c r="I32" t="n">
         <v>3272054</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>894231</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>27.329347254049</v>
       </c>
-      <c r="K32" t="n">
-        <v>18.0900684498748</v>
+      <c r="L32" t="n">
+        <v>18.6825328131098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
         <v>111346</v>
@@ -1672,24 +1771,27 @@
         <v>122213</v>
       </c>
       <c r="G33" t="n">
-        <v>126422</v>
+        <v>126880</v>
       </c>
       <c r="H33" t="n">
+        <v>127700</v>
+      </c>
+      <c r="I33" t="n">
         <v>792755</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>354623</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>44.7329881236952</v>
       </c>
-      <c r="K33" t="n">
-        <v>35.6496899524284</v>
+      <c r="L33" t="n">
+        <v>36.0100726687214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="n">
         <v>800518</v>
@@ -1707,24 +1809,27 @@
         <v>905762</v>
       </c>
       <c r="G34" t="n">
-        <v>923227</v>
+        <v>918000</v>
       </c>
       <c r="H34" t="n">
+        <v>928151</v>
+      </c>
+      <c r="I34" t="n">
         <v>7417224</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>2502863</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>33.7439316919645</v>
       </c>
-      <c r="K34" t="n">
-        <v>36.8868371940454</v>
+      <c r="L34" t="n">
+        <v>37.0835718934676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
         <v>452141</v>
@@ -1742,24 +1847,27 @@
         <v>500509</v>
       </c>
       <c r="G35" t="n">
-        <v>512669</v>
+        <v>528107</v>
       </c>
       <c r="H35" t="n">
+        <v>534331</v>
+      </c>
+      <c r="I35" t="n">
         <v>4031592</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1622335</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>40.240555095853</v>
       </c>
-      <c r="K35" t="n">
-        <v>31.6006866645915</v>
+      <c r="L35" t="n">
+        <v>32.9359226053805</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
         <v>5984</v>
@@ -1777,24 +1885,27 @@
         <v>7208</v>
       </c>
       <c r="G36" t="n">
-        <v>7426</v>
+        <v>7823</v>
       </c>
       <c r="H36" t="n">
+        <v>7914</v>
+      </c>
+      <c r="I36" t="n">
         <v>320873</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>109032</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>33.9797988612317</v>
       </c>
-      <c r="K36" t="n">
-        <v>6.81084452270893</v>
+      <c r="L36" t="n">
+        <v>7.25841954655514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
         <v>598154</v>
@@ -1812,24 +1923,27 @@
         <v>658347</v>
       </c>
       <c r="G37" t="n">
-        <v>672953</v>
+        <v>677830</v>
       </c>
       <c r="H37" t="n">
+        <v>685968</v>
+      </c>
+      <c r="I37" t="n">
         <v>4717226</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1849931</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>39.2165013929797</v>
       </c>
-      <c r="K37" t="n">
-        <v>36.37719460888</v>
+      <c r="L37" t="n">
+        <v>37.0807343625249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
         <v>164323</v>
@@ -1847,24 +1961,27 @@
         <v>181536</v>
       </c>
       <c r="G38" t="n">
-        <v>186756</v>
+        <v>191004</v>
       </c>
       <c r="H38" t="n">
+        <v>194526</v>
+      </c>
+      <c r="I38" t="n">
         <v>1493569</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>627314</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>42.0010056448681</v>
       </c>
-      <c r="K38" t="n">
-        <v>29.7707368239829</v>
+      <c r="L38" t="n">
+        <v>31.0093509789356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
         <v>108365</v>
@@ -1882,24 +1999,27 @@
         <v>119401</v>
       </c>
       <c r="G39" t="n">
-        <v>121753</v>
+        <v>123370</v>
       </c>
       <c r="H39" t="n">
+        <v>124813</v>
+      </c>
+      <c r="I39" t="n">
         <v>1642579</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>562684</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>34.2561301465561</v>
       </c>
-      <c r="K39" t="n">
-        <v>21.6378997803385</v>
+      <c r="L39" t="n">
+        <v>22.181721890084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
         <v>413690</v>
@@ -1917,24 +2037,27 @@
         <v>449115</v>
       </c>
       <c r="G40" t="n">
-        <v>458224</v>
+        <v>456762</v>
       </c>
       <c r="H40" t="n">
+        <v>461655</v>
+      </c>
+      <c r="I40" t="n">
         <v>5106601</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>1836402</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>35.9613371007447</v>
       </c>
-      <c r="K40" t="n">
-        <v>24.9522707990952</v>
+      <c r="L40" t="n">
+        <v>25.1391035296193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
         <v>472137</v>
@@ -1952,24 +2075,27 @@
         <v>502705</v>
       </c>
       <c r="G41" t="n">
-        <v>505016</v>
+        <v>477081</v>
       </c>
       <c r="H41" t="n">
+        <v>478535</v>
+      </c>
+      <c r="I41" t="n">
         <v>1205749</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>934939</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>77.5401016297754</v>
       </c>
-      <c r="K41" t="n">
-        <v>54.0159304510776</v>
+      <c r="L41" t="n">
+        <v>51.183553151596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="n">
         <v>32094</v>
@@ -1987,24 +2113,27 @@
         <v>36332</v>
       </c>
       <c r="G42" t="n">
-        <v>37332</v>
+        <v>37194</v>
       </c>
       <c r="H42" t="n">
+        <v>37621</v>
+      </c>
+      <c r="I42" t="n">
         <v>414730</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>140820</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>33.9546210787741</v>
       </c>
-      <c r="K42" t="n">
-        <v>26.5104388581167</v>
+      <c r="L42" t="n">
+        <v>26.7156653884391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
         <v>213068</v>
@@ -2022,24 +2151,27 @@
         <v>232917</v>
       </c>
       <c r="G43" t="n">
-        <v>238712</v>
+        <v>243849</v>
       </c>
       <c r="H43" t="n">
+        <v>246771</v>
+      </c>
+      <c r="I43" t="n">
         <v>1961481</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>814107</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>41.5047099615036</v>
       </c>
-      <c r="K43" t="n">
-        <v>29.3219441670444</v>
+      <c r="L43" t="n">
+        <v>30.3118631826038</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="n">
         <v>7682</v>
@@ -2057,24 +2189,27 @@
         <v>10461</v>
       </c>
       <c r="G44" t="n">
-        <v>11069</v>
+        <v>12087</v>
       </c>
       <c r="H44" t="n">
+        <v>12653</v>
+      </c>
+      <c r="I44" t="n">
         <v>347878</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>129873</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>37.3329155623523</v>
       </c>
-      <c r="K44" t="n">
-        <v>8.52294164298969</v>
+      <c r="L44" t="n">
+        <v>9.74259468865738</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="n">
         <v>246541</v>
@@ -2092,24 +2227,27 @@
         <v>263382</v>
       </c>
       <c r="G45" t="n">
-        <v>268976</v>
+        <v>269588</v>
       </c>
       <c r="H45" t="n">
+        <v>271368</v>
+      </c>
+      <c r="I45" t="n">
         <v>2639455</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>1093986</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>41.4474200166322</v>
       </c>
-      <c r="K45" t="n">
-        <v>24.5867863025669</v>
+      <c r="L45" t="n">
+        <v>24.8054362670089</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
         <v>831275</v>
@@ -2127,24 +2265,27 @@
         <v>934576</v>
       </c>
       <c r="G46" t="n">
-        <v>953868</v>
+        <v>984785</v>
       </c>
       <c r="H46" t="n">
+        <v>996036</v>
+      </c>
+      <c r="I46" t="n">
         <v>9906070</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>3531234</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>35.6471739044848</v>
       </c>
-      <c r="K46" t="n">
-        <v>27.012313542518</v>
+      <c r="L46" t="n">
+        <v>28.2064570062477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
         <v>37845</v>
@@ -2162,24 +2303,27 @@
         <v>38704</v>
       </c>
       <c r="G47" t="n">
-        <v>38970</v>
+        <v>39634</v>
       </c>
       <c r="H47" t="n">
+        <v>39946</v>
+      </c>
+      <c r="I47" t="n">
         <v>1003345</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>276369</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>27.5447627685392</v>
       </c>
-      <c r="K47" t="n">
-        <v>14.1007131769482</v>
+      <c r="L47" t="n">
+        <v>14.4538642177668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="n">
         <v>13383</v>
@@ -2197,24 +2341,27 @@
         <v>14032</v>
       </c>
       <c r="G48" t="n">
-        <v>14276</v>
+        <v>14816</v>
       </c>
       <c r="H48" t="n">
+        <v>14905</v>
+      </c>
+      <c r="I48" t="n">
         <v>262852</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>93005</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>35.3830292331807</v>
       </c>
-      <c r="K48" t="n">
-        <v>15.3497123810548</v>
+      <c r="L48" t="n">
+        <v>16.0260201064459</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="n">
         <v>223768</v>
@@ -2232,24 +2379,27 @@
         <v>242118</v>
       </c>
       <c r="G49" t="n">
-        <v>247869</v>
+        <v>251529</v>
       </c>
       <c r="H49" t="n">
+        <v>253702</v>
+      </c>
+      <c r="I49" t="n">
         <v>3184121</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>933579</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>29.3198342650923</v>
       </c>
-      <c r="K49" t="n">
-        <v>26.5504044114103</v>
+      <c r="L49" t="n">
+        <v>27.1752042408837</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="n">
         <v>190027</v>
@@ -2267,24 +2417,27 @@
         <v>202146</v>
       </c>
       <c r="G50" t="n">
-        <v>204903</v>
+        <v>208468</v>
       </c>
       <c r="H50" t="n">
+        <v>209930</v>
+      </c>
+      <c r="I50" t="n">
         <v>2905822</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>817679</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>28.1393354444973</v>
       </c>
-      <c r="K50" t="n">
-        <v>25.0591002092508</v>
+      <c r="L50" t="n">
+        <v>25.6738891423162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
         <v>72381</v>
@@ -2302,24 +2455,27 @@
         <v>71553</v>
       </c>
       <c r="G51" t="n">
-        <v>72885</v>
+        <v>73850</v>
       </c>
       <c r="H51" t="n">
+        <v>74541</v>
+      </c>
+      <c r="I51" t="n">
         <v>734235</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>347701</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>47.3555469297977</v>
       </c>
-      <c r="K51" t="n">
-        <v>20.9619759506012</v>
+      <c r="L51" t="n">
+        <v>21.43824722966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
         <v>202878</v>
@@ -2337,24 +2493,27 @@
         <v>223649</v>
       </c>
       <c r="G52" t="n">
-        <v>230238</v>
+        <v>238843</v>
       </c>
       <c r="H52" t="n">
+        <v>242012</v>
+      </c>
+      <c r="I52" t="n">
         <v>2377935</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>836986</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>35.1980184487801</v>
       </c>
-      <c r="K52" t="n">
-        <v>27.5079869914192</v>
+      <c r="L52" t="n">
+        <v>28.9147010822164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
         <v>7100</v>
@@ -2372,19 +2531,22 @@
         <v>9022</v>
       </c>
       <c r="G53" t="n">
-        <v>9427</v>
+        <v>10090</v>
       </c>
       <c r="H53" t="n">
+        <v>10328</v>
+      </c>
+      <c r="I53" t="n">
         <v>233231</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>79298</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>33.9997684698861</v>
       </c>
-      <c r="K53" t="n">
-        <v>11.8880677949003</v>
+      <c r="L53" t="n">
+        <v>13.0242881283261</v>
       </c>
     </row>
   </sheetData>
